--- a/ui-testsuite/src/main/resources/TestData/Order_Dummyline_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Dummyline_Reconciled.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>2016149696</t>
+  </si>
+  <si>
+    <t>0361918197</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +518,11 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1389,7 +1397,7 @@
         <v>99</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="T2" s="10" t="s">
         <v>126</v>
@@ -1467,7 +1475,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Dummyline_Reconciled.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Dummyline_Reconciled.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="157">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -477,6 +477,27 @@
   </si>
   <si>
     <t>0361918197</t>
+  </si>
+  <si>
+    <t>6749007363</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>7014343960</t>
+  </si>
+  <si>
+    <t>6751153102</t>
+  </si>
+  <si>
+    <t>8735182633</t>
+  </si>
+  <si>
+    <t>4501109159</t>
+  </si>
+  <si>
+    <t>9842066128</t>
   </si>
 </sst>
 </file>
@@ -487,7 +508,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +539,36 @@
       <sz val="8"/>
       <name val="HP Simplified"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1397,10 +1448,10 @@
         <v>99</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="U2" t="s">
         <v>77</v>
@@ -1475,7 +1526,7 @@
         <v>5000000010</v>
       </c>
       <c r="AX2" s="11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="AY2" t="s">
         <v>105</v>
